--- a/grostig_tools/DOTgitignore.xlsx
+++ b/grostig_tools/DOTgitignore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\src\cpp_by_example\grostig_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2329BF4D-7017-4233-91B4-39259DE174A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97979879-ACD9-4D05-82A1-5BD66414A1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{64F2A81A-D9A4-4FE4-9AFF-991D61ECA572}"/>
+    <workbookView xWindow="-53775" yWindow="705" windowWidth="20745" windowHeight="14145" xr2:uid="{64F2A81A-D9A4-4FE4-9AFF-991D61ECA572}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -966,10 +966,10 @@
     <t>Consolidated .gitignore → CSV for Excel (columns: Section, Comment, File pattern)</t>
   </si>
   <si>
-    <t>Produce an xlsx CSV of the above gitignore  with columns for: 1) section 2) sub-section (if applicable) 3) the comments 3) the file pattern.</t>
-  </si>
-  <si>
     <t>Create a single consolidated gitignore file, that handles c++ projects written using the following IDEs and or bash command line: vs-code using cmake, visual studio 26 using native solutions and projects, visual studio 26 using cmake, qt creator using qmake, qt creator using cmake, cmake standalone, vim, make standalone, autotools. Both linux and windows platforms.</t>
+  </si>
+  <si>
+    <t>Produce an xlsx CSV of the above gitignore  with columns: 1) section 2) sub-section (if applicable) 3) the comments 3) the file pattern.</t>
   </si>
 </sst>
 </file>
@@ -1011,11 +1011,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1373,7 +1376,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,18 +1389,21 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>308</v>
       </c>
     </row>
